--- a/natmiOut/OldD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H2">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I2">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J2">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>3761.552470133291</v>
+        <v>3865.947650737809</v>
       </c>
       <c r="R2">
-        <v>3761.552470133291</v>
+        <v>15463.79060295123</v>
       </c>
       <c r="S2">
-        <v>0.02251955048009288</v>
+        <v>0.0207777602458907</v>
       </c>
       <c r="T2">
-        <v>0.02251955048009288</v>
+        <v>0.01185288460594035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H3">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I3">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J3">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>2545.564050734976</v>
+        <v>2789.79395774494</v>
       </c>
       <c r="R3">
-        <v>2545.564050734976</v>
+        <v>16738.76374646964</v>
       </c>
       <c r="S3">
-        <v>0.01523970716771756</v>
+        <v>0.01499390970242348</v>
       </c>
       <c r="T3">
-        <v>0.01523970716771756</v>
+        <v>0.01283014237758352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H4">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I4">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J4">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>1920.445652749561</v>
+        <v>1985.669829032797</v>
       </c>
       <c r="R4">
-        <v>1920.445652749561</v>
+        <v>11914.01897419678</v>
       </c>
       <c r="S4">
-        <v>0.0114972669302779</v>
+        <v>0.01067209785607632</v>
       </c>
       <c r="T4">
-        <v>0.0114972669302779</v>
+        <v>0.009132010107999499</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H5">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I5">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J5">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>1805.697659171879</v>
+        <v>1870.655971130029</v>
       </c>
       <c r="R5">
-        <v>1805.697659171879</v>
+        <v>11223.93582678017</v>
       </c>
       <c r="S5">
-        <v>0.01081029705430794</v>
+        <v>0.01005394919490585</v>
       </c>
       <c r="T5">
-        <v>0.01081029705430794</v>
+        <v>0.008603066324107848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H6">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I6">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J6">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>2653.069296523413</v>
+        <v>2859.535231485069</v>
       </c>
       <c r="R6">
-        <v>2653.069296523413</v>
+        <v>17157.21138891042</v>
       </c>
       <c r="S6">
-        <v>0.01588331637658278</v>
+        <v>0.01536873822984518</v>
       </c>
       <c r="T6">
-        <v>0.01588331637658278</v>
+        <v>0.01315087949481607</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.856556976865</v>
+        <v>23.4901675</v>
       </c>
       <c r="H7">
-        <v>22.856556976865</v>
+        <v>46.980335</v>
       </c>
       <c r="I7">
-        <v>0.09504762857150083</v>
+        <v>0.0895297714779042</v>
       </c>
       <c r="J7">
-        <v>0.09504762857150083</v>
+        <v>0.0656452012697491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>3189.948789710683</v>
+        <v>3286.468567739304</v>
       </c>
       <c r="R7">
-        <v>3189.948789710683</v>
+        <v>13145.87427095721</v>
       </c>
       <c r="S7">
-        <v>0.01909749056252175</v>
+        <v>0.01766331624876268</v>
       </c>
       <c r="T7">
-        <v>0.01909749056252175</v>
+        <v>0.01007621835930182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H8">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I8">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J8">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>7638.663305767635</v>
+        <v>8271.28161583958</v>
       </c>
       <c r="R8">
-        <v>7638.663305767635</v>
+        <v>49627.68969503748</v>
       </c>
       <c r="S8">
-        <v>0.04573092234669052</v>
+        <v>0.0444544835746442</v>
       </c>
       <c r="T8">
-        <v>0.04573092234669052</v>
+        <v>0.03803926826986597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H9">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I9">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J9">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>5169.330179818404</v>
+        <v>5968.826678310611</v>
       </c>
       <c r="R9">
-        <v>5169.330179818404</v>
+        <v>53719.4401047955</v>
       </c>
       <c r="S9">
-        <v>0.03094759221278737</v>
+        <v>0.03207980574893333</v>
       </c>
       <c r="T9">
-        <v>0.03094759221278737</v>
+        <v>0.04117556561690293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H10">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I10">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J10">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>3899.889169393727</v>
+        <v>4248.385088419862</v>
       </c>
       <c r="R10">
-        <v>3899.889169393727</v>
+        <v>38235.46579577876</v>
       </c>
       <c r="S10">
-        <v>0.02334774051784461</v>
+        <v>0.02283319247288786</v>
       </c>
       <c r="T10">
-        <v>0.02334774051784461</v>
+        <v>0.02930721034500121</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H11">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I11">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J11">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>3666.868017911227</v>
+        <v>4002.310362535666</v>
       </c>
       <c r="R11">
-        <v>3666.868017911227</v>
+        <v>36020.793262821</v>
       </c>
       <c r="S11">
-        <v>0.02195269641693019</v>
+        <v>0.02151064956260833</v>
       </c>
       <c r="T11">
-        <v>0.02195269641693019</v>
+        <v>0.02760967972996016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H12">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I12">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J12">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>5387.643331821987</v>
+        <v>6118.039696040399</v>
       </c>
       <c r="R12">
-        <v>5387.643331821987</v>
+        <v>55062.35726436359</v>
       </c>
       <c r="S12">
-        <v>0.03225458289975729</v>
+        <v>0.0328817597814365</v>
       </c>
       <c r="T12">
-        <v>0.03225458289975729</v>
+        <v>0.04220490198961997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.4152884910254</v>
+        <v>50.25773966666667</v>
       </c>
       <c r="H13">
-        <v>46.4152884910254</v>
+        <v>150.773219</v>
       </c>
       <c r="I13">
-        <v>0.1930152080647775</v>
+        <v>0.1915509520037551</v>
       </c>
       <c r="J13">
-        <v>0.1930152080647775</v>
+        <v>0.210674068359516</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>6477.895752010454</v>
+        <v>7031.473134456142</v>
       </c>
       <c r="R13">
-        <v>6477.895752010454</v>
+        <v>42188.83880673686</v>
       </c>
       <c r="S13">
-        <v>0.03878167367076749</v>
+        <v>0.03779106086324494</v>
       </c>
       <c r="T13">
-        <v>0.03878167367076749</v>
+        <v>0.03233744240816575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H14">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I14">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J14">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>8467.082948025614</v>
+        <v>9932.428525999698</v>
       </c>
       <c r="R14">
-        <v>8467.082948025614</v>
+        <v>59594.57115599819</v>
       </c>
       <c r="S14">
-        <v>0.05069048042826847</v>
+        <v>0.05338241414967978</v>
       </c>
       <c r="T14">
-        <v>0.05069048042826847</v>
+        <v>0.0456788114369409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H15">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I15">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J15">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>5729.94850881912</v>
+        <v>7167.564486363168</v>
       </c>
       <c r="R15">
-        <v>5729.94850881912</v>
+        <v>64508.08037726851</v>
       </c>
       <c r="S15">
-        <v>0.03430388535511049</v>
+        <v>0.03852249174046431</v>
       </c>
       <c r="T15">
-        <v>0.03430388535511049</v>
+        <v>0.04944498102014944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H16">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I16">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J16">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>4322.835522863125</v>
+        <v>5101.601323892292</v>
       </c>
       <c r="R16">
-        <v>4322.835522863125</v>
+        <v>45914.41191503064</v>
       </c>
       <c r="S16">
-        <v>0.02587982317067221</v>
+        <v>0.02741885269908473</v>
       </c>
       <c r="T16">
-        <v>0.02587982317067221</v>
+        <v>0.03519306747949678</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H17">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I17">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J17">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>4064.543025960293</v>
+        <v>4806.10665445446</v>
       </c>
       <c r="R17">
-        <v>4064.543025960293</v>
+        <v>43254.95989009014</v>
       </c>
       <c r="S17">
-        <v>0.02433348533042764</v>
+        <v>0.02583069943106356</v>
       </c>
       <c r="T17">
-        <v>0.02433348533042764</v>
+        <v>0.03315461657337561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H18">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I18">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J18">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>5971.937910978469</v>
+        <v>7346.744413076303</v>
       </c>
       <c r="R18">
-        <v>5971.937910978469</v>
+        <v>66120.69971768673</v>
       </c>
       <c r="S18">
-        <v>0.03575262031251011</v>
+        <v>0.03948550466626305</v>
       </c>
       <c r="T18">
-        <v>0.03575262031251011</v>
+        <v>0.05068104218044715</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>51.4490666728708</v>
+        <v>60.351156</v>
       </c>
       <c r="H19">
-        <v>51.4490666728708</v>
+        <v>181.053468</v>
       </c>
       <c r="I19">
-        <v>0.2139478743199638</v>
+        <v>0.2300207184604941</v>
       </c>
       <c r="J19">
-        <v>0.2139478743199638</v>
+        <v>0.2529843890522722</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>7180.429149105339</v>
+        <v>8443.625496528763</v>
       </c>
       <c r="R19">
-        <v>7180.429149105339</v>
+        <v>50661.75297917258</v>
       </c>
       <c r="S19">
-        <v>0.04298757972297491</v>
+        <v>0.04538075577393867</v>
       </c>
       <c r="T19">
-        <v>0.04298757972297491</v>
+        <v>0.03883187036186235</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H20">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I20">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J20">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>10801.69288130505</v>
+        <v>11875.33561825122</v>
       </c>
       <c r="R20">
-        <v>10801.69288130505</v>
+        <v>71252.0137095073</v>
       </c>
       <c r="S20">
-        <v>0.06466725375823071</v>
+        <v>0.06382468119257115</v>
       </c>
       <c r="T20">
-        <v>0.06466725375823071</v>
+        <v>0.05461415755839911</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H21">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I21">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J21">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>7309.854456119207</v>
+        <v>8569.629634707486</v>
       </c>
       <c r="R21">
-        <v>7309.854456119207</v>
+        <v>77126.66671236738</v>
       </c>
       <c r="S21">
-        <v>0.0437624193026012</v>
+        <v>0.04605797233494616</v>
       </c>
       <c r="T21">
-        <v>0.0437624193026012</v>
+        <v>0.05911703695781056</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H22">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I22">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J22">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>5514.761338821121</v>
+        <v>6099.538270338372</v>
       </c>
       <c r="R22">
-        <v>5514.761338821121</v>
+        <v>54895.84443304535</v>
       </c>
       <c r="S22">
-        <v>0.03301560920426192</v>
+        <v>0.0327823227941378</v>
       </c>
       <c r="T22">
-        <v>0.03301560920426192</v>
+        <v>0.04207727109848214</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H23">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I23">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J23">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>5185.250426714088</v>
+        <v>5746.241152338192</v>
       </c>
       <c r="R23">
-        <v>5185.250426714088</v>
+        <v>51716.17037104374</v>
       </c>
       <c r="S23">
-        <v>0.03104290307352094</v>
+        <v>0.03088350690821371</v>
       </c>
       <c r="T23">
-        <v>0.03104290307352094</v>
+        <v>0.03964007373147861</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H24">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I24">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J24">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>7618.567057460313</v>
+        <v>8783.859393341261</v>
       </c>
       <c r="R24">
-        <v>7618.567057460313</v>
+        <v>79054.73454007137</v>
       </c>
       <c r="S24">
-        <v>0.04561061072487731</v>
+        <v>0.04720936261866562</v>
       </c>
       <c r="T24">
-        <v>0.04561061072487731</v>
+        <v>0.06059488712152397</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>65.6350032994216</v>
+        <v>72.15659599999999</v>
       </c>
       <c r="H25">
-        <v>65.6350032994216</v>
+        <v>216.469788</v>
       </c>
       <c r="I25">
-        <v>0.2729392454518458</v>
+        <v>0.2750156443330367</v>
       </c>
       <c r="J25">
-        <v>0.2729392454518458</v>
+        <v>0.302471295747038</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>9160.272894538295</v>
+        <v>10095.30411858764</v>
       </c>
       <c r="R25">
-        <v>9160.272894538295</v>
+        <v>60571.82471152585</v>
       </c>
       <c r="S25">
-        <v>0.05484044938835372</v>
+        <v>0.05425779848450227</v>
       </c>
       <c r="T25">
-        <v>0.05484044938835372</v>
+        <v>0.04642786927934364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H26">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I26">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J26">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>1342.265129868437</v>
+        <v>1342.889907985366</v>
       </c>
       <c r="R26">
-        <v>1342.265129868437</v>
+        <v>8057.339447912195</v>
       </c>
       <c r="S26">
-        <v>0.008035832967835641</v>
+        <v>0.007217439827314027</v>
       </c>
       <c r="T26">
-        <v>0.008035832967835641</v>
+        <v>0.006175892907445856</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H27">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I27">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J27">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>908.3541671365098</v>
+        <v>969.0731716191867</v>
       </c>
       <c r="R27">
-        <v>908.3541671365098</v>
+        <v>8721.65854457268</v>
       </c>
       <c r="S27">
-        <v>0.005438107718302945</v>
+        <v>0.005208340060369311</v>
       </c>
       <c r="T27">
-        <v>0.005438107718302945</v>
+        <v>0.006685088731187578</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H28">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I28">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J28">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>685.2881234438346</v>
+        <v>689.7496331825051</v>
       </c>
       <c r="R28">
-        <v>685.2881234438346</v>
+        <v>6207.746698642546</v>
       </c>
       <c r="S28">
-        <v>0.004102662560693911</v>
+        <v>0.003707099475395643</v>
       </c>
       <c r="T28">
-        <v>0.004102662560693911</v>
+        <v>0.004758193328605648</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H29">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I29">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J29">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>644.3416706893865</v>
+        <v>649.7979931165528</v>
       </c>
       <c r="R29">
-        <v>644.3416706893865</v>
+        <v>5848.181938048975</v>
       </c>
       <c r="S29">
-        <v>0.003857525554868267</v>
+        <v>0.003492377064821342</v>
       </c>
       <c r="T29">
-        <v>0.003857525554868267</v>
+        <v>0.004482589518058396</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H30">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I30">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J30">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>946.7161317363659</v>
+        <v>993.2987590137267</v>
       </c>
       <c r="R30">
-        <v>946.7161317363659</v>
+        <v>8939.68883112354</v>
       </c>
       <c r="S30">
-        <v>0.005667771987293293</v>
+        <v>0.005338541887236666</v>
       </c>
       <c r="T30">
-        <v>0.005667771987293293</v>
+        <v>0.006852207382328278</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.156089716278739</v>
+        <v>8.159631666666668</v>
       </c>
       <c r="H31">
-        <v>8.156089716278739</v>
+        <v>24.478895</v>
       </c>
       <c r="I31">
-        <v>0.03391661249475851</v>
+        <v>0.03109939332959364</v>
       </c>
       <c r="J31">
-        <v>0.03391661249475851</v>
+        <v>0.0342041407141106</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>1138.295174795993</v>
+        <v>1141.599905442576</v>
       </c>
       <c r="R31">
-        <v>1138.295174795993</v>
+        <v>6849.599432655456</v>
       </c>
       <c r="S31">
-        <v>0.006814711705764448</v>
+        <v>0.00613559501445666</v>
       </c>
       <c r="T31">
-        <v>0.006814711705764448</v>
+        <v>0.005250168846484843</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H32">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I32">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J32">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>7564.191139473857</v>
+        <v>7892.698815163051</v>
       </c>
       <c r="R32">
-        <v>7564.191139473857</v>
+        <v>31570.7952606522</v>
       </c>
       <c r="S32">
-        <v>0.04528507459591989</v>
+        <v>0.04241976831817312</v>
       </c>
       <c r="T32">
-        <v>0.04528507459591989</v>
+        <v>0.02419878817234261</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H33">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I33">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J33">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>5118.932459514616</v>
+        <v>5695.628977448839</v>
       </c>
       <c r="R33">
-        <v>5118.932459514616</v>
+        <v>34173.77386469304</v>
       </c>
       <c r="S33">
-        <v>0.03064587263942661</v>
+        <v>0.03061148883389411</v>
       </c>
       <c r="T33">
-        <v>0.03064587263942661</v>
+        <v>0.02619395260631649</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H34">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I34">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J34">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>3861.867701091662</v>
+        <v>4053.933297291585</v>
       </c>
       <c r="R34">
-        <v>3861.867701091662</v>
+        <v>24323.59978374951</v>
       </c>
       <c r="S34">
-        <v>0.02312011472196537</v>
+        <v>0.02178810002455213</v>
       </c>
       <c r="T34">
-        <v>0.02312011472196537</v>
+        <v>0.01864386480911325</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H35">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I35">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J35">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>3631.118359381177</v>
+        <v>3819.121597287507</v>
       </c>
       <c r="R35">
-        <v>3631.118359381177</v>
+        <v>22914.72958372505</v>
       </c>
       <c r="S35">
-        <v>0.02173867142424279</v>
+        <v>0.02052609090120468</v>
       </c>
       <c r="T35">
-        <v>0.02173867142424279</v>
+        <v>0.01756397590383727</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H36">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I36">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J36">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>5335.117195497055</v>
+        <v>5838.012402768019</v>
       </c>
       <c r="R36">
-        <v>5335.117195497055</v>
+        <v>35028.07441660811</v>
       </c>
       <c r="S36">
-        <v>0.03194012098864864</v>
+        <v>0.03137673682521287</v>
       </c>
       <c r="T36">
-        <v>0.03194012098864864</v>
+        <v>0.02684876785314918</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.962768600475</v>
+        <v>47.95740499999999</v>
       </c>
       <c r="H37">
-        <v>45.962768600475</v>
+        <v>95.91480999999999</v>
       </c>
       <c r="I37">
-        <v>0.1911334310971535</v>
+        <v>0.1827835203952164</v>
       </c>
       <c r="J37">
-        <v>0.1911334310971535</v>
+        <v>0.1340209048573141</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>6414.740339817692</v>
+        <v>6709.637303473622</v>
       </c>
       <c r="R37">
-        <v>6414.740339817692</v>
+        <v>26838.54921389449</v>
       </c>
       <c r="S37">
-        <v>0.03840357672695014</v>
+        <v>0.03606133549217955</v>
       </c>
       <c r="T37">
-        <v>0.03840357672695014</v>
+        <v>0.02057155551255532</v>
       </c>
     </row>
   </sheetData>
